--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.20.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.20.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C9A723-7818-324A-83C7-E71DEC0DC9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BC1CC-BCC1-7947-9347-0E82B29156F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="19580" windowHeight="19760" xr2:uid="{5EC711FD-29FB-E046-A8C8-B789A9DE105B}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="16680" windowHeight="19760" xr2:uid="{5EC711FD-29FB-E046-A8C8-B789A9DE105B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t>E7760</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>01.20.20</t>
+  </si>
+  <si>
+    <t>E7420</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -549,13 +549,13 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -597,18 +597,18 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -629,18 +629,18 @@
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -661,18 +661,18 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -693,18 +693,18 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -725,18 +725,18 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -745,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -757,18 +757,18 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -789,18 +789,18 @@
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -821,18 +821,18 @@
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -853,18 +853,18 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -885,18 +885,18 @@
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -917,18 +917,18 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -949,18 +949,18 @@
         <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -981,18 +981,18 @@
         <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1013,18 +1013,18 @@
         <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -1033,7 +1033,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -1045,18 +1045,18 @@
         <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1077,18 +1077,18 @@
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -1109,18 +1109,18 @@
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1141,18 +1141,18 @@
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1173,18 +1173,18 @@
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1205,18 +1205,18 @@
         <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
@@ -1225,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1237,18 +1237,18 @@
         <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1269,18 +1269,18 @@
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1301,18 +1301,18 @@
         <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1333,18 +1333,18 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>10</v>
@@ -1353,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1365,18 +1365,18 @@
         <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
@@ -1385,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1397,18 +1397,18 @@
         <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1429,18 +1429,18 @@
         <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
@@ -1449,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1461,18 +1461,18 @@
         <v>11</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>10</v>
@@ -1481,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -1493,18 +1493,18 @@
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>10</v>
@@ -1513,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -1525,18 +1525,18 @@
         <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>10</v>
@@ -1545,7 +1545,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1557,18 +1557,18 @@
         <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
@@ -1577,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
@@ -1589,18 +1589,18 @@
         <v>11</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>10</v>
@@ -1609,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -1621,18 +1621,18 @@
         <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -1653,18 +1653,18 @@
         <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>10</v>
@@ -1673,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
@@ -1685,18 +1685,18 @@
         <v>11</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>10</v>
@@ -1705,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>10</v>
@@ -1717,18 +1717,18 @@
         <v>11</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>10</v>
@@ -1737,7 +1737,7 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
@@ -1749,18 +1749,18 @@
         <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>10</v>
@@ -1769,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
@@ -1781,18 +1781,18 @@
         <v>11</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
@@ -1801,7 +1801,7 @@
         <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
@@ -1813,18 +1813,18 @@
         <v>11</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>10</v>
@@ -1833,7 +1833,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
@@ -1845,18 +1845,18 @@
         <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>10</v>
@@ -1865,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
@@ -1877,18 +1877,18 @@
         <v>11</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>10</v>
@@ -1897,7 +1897,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
@@ -1909,18 +1909,18 @@
         <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>10</v>
@@ -1929,7 +1929,7 @@
         <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
@@ -1941,18 +1941,18 @@
         <v>11</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>10</v>
@@ -1961,7 +1961,7 @@
         <v>29</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
@@ -1973,18 +1973,18 @@
         <v>11</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
@@ -1993,7 +1993,7 @@
         <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
@@ -2005,18 +2005,18 @@
         <v>11</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
@@ -2025,7 +2025,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
@@ -2037,18 +2037,18 @@
         <v>11</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
@@ -2057,7 +2057,7 @@
         <v>32</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>10</v>
@@ -2069,18 +2069,18 @@
         <v>11</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>10</v>
@@ -2089,7 +2089,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>10</v>
@@ -2101,18 +2101,18 @@
         <v>11</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
@@ -2121,7 +2121,7 @@
         <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
@@ -2133,18 +2133,18 @@
         <v>11</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
@@ -2153,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>10</v>
@@ -2165,18 +2165,18 @@
         <v>11</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
@@ -2185,7 +2185,7 @@
         <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
@@ -2197,18 +2197,18 @@
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
@@ -2217,7 +2217,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>
@@ -2229,18 +2229,18 @@
         <v>11</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>10</v>
@@ -2249,7 +2249,7 @@
         <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
@@ -2261,18 +2261,18 @@
         <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>10</v>
@@ -2281,7 +2281,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>10</v>
@@ -2293,18 +2293,18 @@
         <v>11</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
@@ -2313,7 +2313,7 @@
         <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
@@ -2325,13 +2325,13 @@
         <v>11</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.20.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_01.20.20.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">01.20.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
+    <t xml:space="preserve">E7490L</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -211,7 +211,7 @@
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G57"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,7 +296,8 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -344,7 +345,8 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -376,7 +378,8 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -408,7 +411,8 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -440,7 +444,8 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -472,7 +477,8 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -504,7 +510,8 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -536,7 +543,8 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -568,7 +576,8 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -600,7 +609,8 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -632,7 +642,8 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -664,7 +675,8 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -696,7 +708,8 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="I14" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -728,7 +741,8 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -760,7 +774,8 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -792,7 +807,8 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="4" t="b">
+      <c r="I17" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -824,7 +840,8 @@
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -856,7 +873,8 @@
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -888,7 +906,8 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -920,7 +939,8 @@
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -952,7 +972,8 @@
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="4" t="b">
+      <c r="I22" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -984,7 +1005,8 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1016,7 +1038,8 @@
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="b">
+      <c r="I24" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1048,7 +1071,8 @@
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1080,7 +1104,8 @@
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="4" t="b">
+      <c r="I26" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1112,7 +1137,8 @@
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="4" t="b">
+      <c r="I27" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1144,7 +1170,8 @@
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="4" t="b">
+      <c r="I28" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1176,7 +1203,8 @@
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="4" t="b">
+      <c r="I29" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1208,7 +1236,8 @@
       <c r="H30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="4" t="b">
+      <c r="I30" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1240,7 +1269,8 @@
       <c r="H31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="4" t="b">
+      <c r="I31" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1272,7 +1302,8 @@
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="4" t="b">
+      <c r="I32" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1304,7 +1335,8 @@
       <c r="H33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="4" t="b">
+      <c r="I33" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1336,7 +1368,8 @@
       <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="4" t="b">
+      <c r="I34" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1368,7 +1401,8 @@
       <c r="H35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="4" t="b">
+      <c r="I35" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1400,7 +1434,8 @@
       <c r="H36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="4" t="b">
+      <c r="I36" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1432,7 +1467,8 @@
       <c r="H37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="4" t="b">
+      <c r="I37" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1464,7 +1500,8 @@
       <c r="H38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="4" t="b">
+      <c r="I38" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -1496,7 +1533,8 @@
       <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="4" t="b">
+      <c r="I39" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -1528,7 +1566,8 @@
       <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="4" t="b">
+      <c r="I40" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -1560,7 +1599,8 @@
       <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="4" t="b">
+      <c r="I41" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -1592,7 +1632,8 @@
       <c r="H42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="4" t="b">
+      <c r="I42" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -1624,7 +1665,8 @@
       <c r="H43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="4" t="b">
+      <c r="I43" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -1656,7 +1698,8 @@
       <c r="H44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="4" t="b">
+      <c r="I44" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -1688,7 +1731,8 @@
       <c r="H45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="4" t="b">
+      <c r="I45" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -1720,7 +1764,8 @@
       <c r="H46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="4" t="b">
+      <c r="I46" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -1752,7 +1797,8 @@
       <c r="H47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="4" t="b">
+      <c r="I47" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -1784,7 +1830,8 @@
       <c r="H48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="4" t="b">
+      <c r="I48" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -1816,7 +1863,8 @@
       <c r="H49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="4" t="b">
+      <c r="I49" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -1848,7 +1896,8 @@
       <c r="H50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="4" t="b">
+      <c r="I50" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -1880,7 +1929,8 @@
       <c r="H51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="4" t="b">
+      <c r="I51" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -1912,7 +1962,8 @@
       <c r="H52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="4" t="b">
+      <c r="I52" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -1944,7 +1995,8 @@
       <c r="H53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="4" t="b">
+      <c r="I53" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -1976,7 +2028,8 @@
       <c r="H54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="4" t="b">
+      <c r="I54" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -2008,7 +2061,8 @@
       <c r="H55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="4" t="b">
+      <c r="I55" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -2040,7 +2094,8 @@
       <c r="H56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="4" t="b">
+      <c r="I56" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -2072,7 +2127,8 @@
       <c r="H57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="4" t="b">
+      <c r="I57" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
